--- a/data/trans_camb/P19C04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P19C04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,3</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 26,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,09; 12,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,58; 14,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,22; 12,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,43; 2,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,76; 6,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; 15,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,81; 4,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,3; 7,23</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,75%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,59%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,31; 208,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,15; 104,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,43; 103,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,11; 99,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,45; 26,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,46; 52,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,73; 114,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,58; 29,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,88; 51,22</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,6; 14,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,0; 5,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,0; 5,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 9,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 7,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 6,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,18; 10,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 5,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 5,32</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,73%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,28; 74,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,92; 28,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,09; 30,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,88; 89,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,55; 73,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,61; 64,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,27; 67,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,62; 35,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,83; 33,95</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,44</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,48</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 9,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,71; -0,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,35; -3,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,83; 11,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; 4,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; 2,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,45; 9,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,14; 0,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,92; -1,22</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,15%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,85%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,81%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,41%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,68; 51,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,68; -3,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,97; -17,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,83; 109,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,97; 41,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,56; 26,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,65; 64,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,1; 5,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,18; -7,98</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,77</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,88</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,75</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,39</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 10,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,65; 3,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,16; -4,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,76; 2,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,06; -1,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,16; -6,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,13; 4,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,81; -0,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,66; -6,67</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,91%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,79%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,55%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,73%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,93%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,64%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,25%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 54,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,59; 24,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,68; -22,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,9; 17,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,25; -12,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,35; -38,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,23; 25,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,48; -2,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,27; -39,11</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,76</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,77</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,57; 4,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,63; 1,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,28; 2,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,71; 4,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,59; 0,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,02; -2,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,09; 3,43</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,84; 0,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,14; -1,32</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,8%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,35%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,54%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,12%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,15%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,32%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,73; 27,56</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,13; 10,94</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,44; 15,42</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,19; 31,3</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,8; 1,85</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,92; -19,55</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,34; 21,39</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,66; 0,43</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,57; -8,58</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,92</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,46; 7,08</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 0,25</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,44; -2,15</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,04; 4,88</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; 0,24</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,44; -2,04</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,27; 5,27</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; -0,44</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,25; -2,52</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,49%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,24%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,31%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,58%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,6%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,85%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,63; 37,63</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,34; 1,36</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,58; -11,34</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,6; 35,07</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,41; 1,9</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,56; -15,19</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,47; 31,82</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,17; -2,6</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,4; -15,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,53</t>
+          <t>9,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,3</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,92</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>1,53</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 26,85</t>
+          <t>4,26; 14,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 12,83</t>
+          <t>-5,2; 5,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 14,02</t>
+          <t>-4,36; 5,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 12,15</t>
+          <t>-0,19; 8,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 2,84</t>
+          <t>-2,84; 5,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 6,08</t>
+          <t>-1,53; 5,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 15,96</t>
+          <t>3,51; 10,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 4,23</t>
+          <t>-2,61; 4,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 7,23</t>
+          <t>-1,57; 4,59</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>68,34%</t>
+          <t>43,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,11%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-42,56%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,1%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>37,75%</t>
+          <t>39,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-18,66%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>8,84%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 208,22</t>
+          <t>17,52; 75,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-47,15; 104,01</t>
+          <t>-21,7; 29,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,43; 103,99</t>
+          <t>-17,8; 30,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-53,11; 99,17</t>
+          <t>-1,51; 69,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-74,45; 26,55</t>
+          <t>-18,77; 45,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,46; 52,08</t>
+          <t>-9,97; 45,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 114,56</t>
+          <t>17,76; 64,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,58; 29,7</t>
+          <t>-13,59; 28,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-30,88; 51,22</t>
+          <t>-8,46; 30,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,5</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-4,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>-9,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>7,44</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>-4,81</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 14,43</t>
+          <t>0,95; 9,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 5,63</t>
+          <t>-8,71; -0,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 5,88</t>
+          <t>-17,14; -5,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 9,73</t>
+          <t>3,83; 11,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 7,83</t>
+          <t>-2,38; 4,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 6,62</t>
+          <t>-3,27; 2,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 10,58</t>
+          <t>3,45; 9,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 5,36</t>
+          <t>-4,14; 0,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 5,32</t>
+          <t>-8,78; -2,0</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>38,88%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>-22,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>-46,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>39,09%</t>
+          <t>61,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>-2,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>40,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>-10,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>-29,63%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,28; 74,81</t>
+          <t>3,68; 51,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,92; 28,96</t>
+          <t>-37,68; -3,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,09; 30,78</t>
+          <t>-74,71; -25,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 89,01</t>
+          <t>27,83; 109,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 73,98</t>
+          <t>-16,97; 41,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 64,87</t>
+          <t>-22,47; 25,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,27; 67,5</t>
+          <t>19,65; 64,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 35,83</t>
+          <t>-24,1; 5,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 33,95</t>
+          <t>-54,81; -14,23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,72</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,1</t>
+          <t>-9,09</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>-5,88</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-10,89</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-10,27</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 9,62</t>
+          <t>0,02; 10,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,71; -0,7</t>
+          <t>-5,65; 3,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,35; -3,31</t>
+          <t>-13,36; -4,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,83; 11,18</t>
+          <t>-5,76; 2,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 4,26</t>
+          <t>-10,06; -1,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 2,66</t>
+          <t>-15,75; -7,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,45; 9,36</t>
+          <t>-2,13; 4,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,87</t>
+          <t>-6,81; -0,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,92; -1,22</t>
+          <t>-14,45; -7,48</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>26,35%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-22,72%</t>
+          <t>-4,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-34,18%</t>
+          <t>-45,36%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>61,15%</t>
+          <t>-9,55%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>-33,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-2,39%</t>
+          <t>-62,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-10,81%</t>
+          <t>-18,64%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-21,41%</t>
+          <t>-54,92%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,68; 51,77</t>
+          <t>-1,21; 54,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,68; -3,88</t>
+          <t>-25,59; 24,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,97; -17,48</t>
+          <t>-59,18; -24,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>27,83; 109,65</t>
+          <t>-28,9; 17,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 41,69</t>
+          <t>-51,25; -12,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 26,04</t>
+          <t>-80,92; -45,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,65; 64,04</t>
+          <t>-10,23; 25,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 5,82</t>
+          <t>-33,48; -2,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-33,18; -7,98</t>
+          <t>-70,76; -43,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-8,77</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,88</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-9,75</t>
+          <t>-6,24</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-9,39</t>
+          <t>-4,24</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 10,14</t>
+          <t>-3,57; 4,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 3,96</t>
+          <t>-5,63; 1,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,16; -4,34</t>
+          <t>-5,69; 1,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 2,66</t>
+          <t>-2,71; 4,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,06; -1,86</t>
+          <t>-6,59; 0,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,16; -6,13</t>
+          <t>-9,82; -3,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 4,47</t>
+          <t>-2,09; 3,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,81; -0,42</t>
+          <t>-4,84; 0,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,66; -6,67</t>
+          <t>-6,83; -1,68</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-4,91%</t>
+          <t>-9,8%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-43,79%</t>
+          <t>-10,01%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,55%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-33,73%</t>
+          <t>-18,54%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-55,93%</t>
+          <t>-39,16%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-18,64%</t>
+          <t>-14,15%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-50,25%</t>
+          <t>-25,1%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 54,77</t>
+          <t>-17,73; 27,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,59; 24,03</t>
+          <t>-28,13; 10,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-57,68; -22,55</t>
+          <t>-28,26; 12,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,9; 17,83</t>
+          <t>-15,19; 31,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-51,25; -12,36</t>
+          <t>-36,8; 1,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-72,35; -38,89</t>
+          <t>-54,22; -22,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 25,9</t>
+          <t>-11,34; 21,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,48; -2,86</t>
+          <t>-26,66; 0,43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-62,27; -39,11</t>
+          <t>-37,63; -11,04</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-5,76</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>-4,75</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 4,29</t>
+          <t>2,46; 7,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 1,75</t>
+          <t>-4,02; 0,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 2,35</t>
+          <t>-9,03; -3,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 4,34</t>
+          <t>1,04; 4,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 0,17</t>
+          <t>-3,51; 0,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,02; -2,78</t>
+          <t>-6,53; -2,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 3,43</t>
+          <t>2,27; 5,27</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 0,07</t>
+          <t>-3,51; -0,44</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,14; -1,32</t>
+          <t>-6,49; -3,04</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-9,8%</t>
+          <t>-10,49%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-7,35%</t>
+          <t>-27,5%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-18,54%</t>
+          <t>-11,31%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-36,12%</t>
+          <t>-28,39%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-14,15%</t>
+          <t>-10,6%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-22,32%</t>
+          <t>-27,64%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 27,56</t>
+          <t>11,63; 37,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-28,13; 10,94</t>
+          <t>-19,34; 1,36</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-25,44; 15,42</t>
+          <t>-43,67; -16,52</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 31,3</t>
+          <t>6,6; 35,07</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-36,8; 1,85</t>
+          <t>-22,41; 1,9</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-48,92; -19,55</t>
+          <t>-42,32; -18,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 21,39</t>
+          <t>12,47; 31,82</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-26,66; 0,43</t>
+          <t>-19,17; -2,6</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-33,57; -8,58</t>
+          <t>-37,51; -18,56</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>4,76</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-2,09</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-4,24</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,86</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-1,66</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-3,61</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>3,82</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-1,82</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-3,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>2,46; 7,08</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-4,02; 0,25</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-6,44; -2,15</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 4,88</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; 0,24</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-5,44; -2,04</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>2,27; 5,27</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; -0,44</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-5,25; -2,52</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>23,86%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-10,49%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-21,24%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>19,47%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-11,31%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-24,58%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>22,24%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-10,6%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-22,85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>11,63; 37,63</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-19,34; 1,36</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-30,58; -11,34</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>6,6; 35,07</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-22,41; 1,9</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-34,56; -15,19</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>12,47; 31,82</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-19,17; -2,6</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-29,4; -15,15</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P19C04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,26; 14,61</t>
+          <t>3,79; 14,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 5,57</t>
+          <t>-5,1; 5,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 5,87</t>
+          <t>-4,3; 6,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 8,27</t>
+          <t>0,06; 8,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 5,32</t>
+          <t>-3,27; 5,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 5,37</t>
+          <t>-1,51; 5,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,51; 10,28</t>
+          <t>3,38; 10,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 4,31</t>
+          <t>-2,5; 4,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 4,59</t>
+          <t>-1,62; 4,6</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,52; 75,97</t>
+          <t>14,09; 75,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,7; 29,26</t>
+          <t>-21,38; 28,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 30,81</t>
+          <t>-18,31; 32,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 69,69</t>
+          <t>-0,31; 76,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,77; 45,48</t>
+          <t>-21,08; 45,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 45,98</t>
+          <t>-10,2; 46,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,76; 64,5</t>
+          <t>17,44; 65,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 28,27</t>
+          <t>-12,67; 29,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 30,12</t>
+          <t>-8,48; 28,81</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 9,62</t>
+          <t>1,06; 9,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,71; -0,7</t>
+          <t>-8,72; -0,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,14; -5,09</t>
+          <t>-16,93; -5,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,83; 11,18</t>
+          <t>3,75; 11,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 4,26</t>
+          <t>-2,7; 4,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 2,69</t>
+          <t>-3,22; 2,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,45; 9,36</t>
+          <t>3,87; 9,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,87</t>
+          <t>-4,34; 0,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,78; -2,0</t>
+          <t>-9,21; -2,17</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,68; 51,77</t>
+          <t>4,22; 51,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,68; -3,88</t>
+          <t>-37,92; -1,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-74,71; -25,8</t>
+          <t>-70,89; -27,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,83; 109,65</t>
+          <t>25,84; 104,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 41,69</t>
+          <t>-19,41; 37,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,47; 25,76</t>
+          <t>-22,75; 26,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,65; 64,04</t>
+          <t>21,24; 65,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 5,82</t>
+          <t>-24,56; 6,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-54,81; -14,23</t>
+          <t>-52,45; -14,75</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 10,14</t>
+          <t>-0,51; 9,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 3,96</t>
+          <t>-5,89; 3,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,36; -4,53</t>
+          <t>-13,33; -4,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 2,66</t>
+          <t>-6,29; 2,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,06; -1,86</t>
+          <t>-10,14; -1,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,75; -7,08</t>
+          <t>-16,94; -7,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 4,47</t>
+          <t>-2,04; 4,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,81; -0,42</t>
+          <t>-6,89; -0,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,45; -7,48</t>
+          <t>-14,21; -7,32</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 54,77</t>
+          <t>-2,35; 56,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,59; 24,03</t>
+          <t>-25,77; 21,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-59,18; -24,29</t>
+          <t>-59,52; -25,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,9; 17,83</t>
+          <t>-31,72; 16,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,25; -12,36</t>
+          <t>-50,39; -11,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-80,92; -45,37</t>
+          <t>-83,7; -45,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 25,9</t>
+          <t>-9,76; 27,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,48; -2,86</t>
+          <t>-33,12; -2,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-70,76; -43,39</t>
+          <t>-72,72; -42,48</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 4,29</t>
+          <t>-3,3; 4,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 1,75</t>
+          <t>-5,5; 1,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 1,96</t>
+          <t>-5,37; 1,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 4,34</t>
+          <t>-2,79; 4,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 0,17</t>
+          <t>-6,28; 0,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,82; -3,21</t>
+          <t>-9,59; -3,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 3,43</t>
+          <t>-1,83; 3,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 0,07</t>
+          <t>-4,92; 0,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,83; -1,68</t>
+          <t>-7,1; -2,04</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 27,56</t>
+          <t>-16,94; 25,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,13; 10,94</t>
+          <t>-27,44; 11,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,26; 12,64</t>
+          <t>-27,63; 9,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 31,3</t>
+          <t>-16,17; 30,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,8; 1,85</t>
+          <t>-35,45; 8,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-54,22; -22,59</t>
+          <t>-53,08; -22,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 21,39</t>
+          <t>-10,15; 21,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-26,66; 0,43</t>
+          <t>-27,12; 1,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-37,63; -11,04</t>
+          <t>-38,66; -13,16</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,46; 7,08</t>
+          <t>2,71; 7,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 0,25</t>
+          <t>-4,14; 0,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,03; -3,12</t>
+          <t>-8,86; -3,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,88</t>
+          <t>0,96; 4,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 0,24</t>
+          <t>-3,79; 0,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,53; -2,53</t>
+          <t>-6,6; -2,49</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,27</t>
+          <t>2,38; 5,38</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,51; -0,44</t>
+          <t>-3,29; -0,37</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,49; -3,04</t>
+          <t>-6,54; -3,18</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>11,63; 37,63</t>
+          <t>12,62; 38,29</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-19,34; 1,36</t>
+          <t>-19,79; 0,77</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-43,67; -16,52</t>
+          <t>-43,77; -16,69</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6,6; 35,07</t>
+          <t>6,15; 34,4</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-22,41; 1,9</t>
+          <t>-23,66; 1,08</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-42,32; -18,18</t>
+          <t>-42,44; -18,24</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>12,47; 31,82</t>
+          <t>12,99; 32,41</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-19,17; -2,6</t>
+          <t>-18,37; -2,27</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-37,51; -18,56</t>
+          <t>-37,57; -19,33</t>
         </is>
       </c>
     </row>
